--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1433871.263439752</v>
+        <v>1458385.94491067</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5930626.202297251</v>
+        <v>5930626.202297252</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.95505229511726</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>25.19384698280639</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>53.51252900994975</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -738,22 +738,22 @@
         <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="S3" t="n">
-        <v>46.38724422570589</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.170977004479174</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.89241773958567</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,76 +893,76 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>40.47627913313517</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,22 +981,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>45.28887413297245</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>110.1044675570004</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1130,31 +1130,31 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>71.01467844038818</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
-        <v>196.9826481283071</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>11.01727716149734</v>
+        <v>7.128048667710792</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,64 +1379,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F14" t="n">
         <v>241.0142888776591</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>62.13484214871502</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>62.13484214871499</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>71.04758922419722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,73 +2081,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>71.01467844038818</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,22 +2163,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>121.9551940726745</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>123.3682322779029</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2315,73 +2315,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.26531605719669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,19 +2403,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8288647492796855</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>178.7036370963425</v>
       </c>
     </row>
     <row r="25">
@@ -2473,73 +2473,73 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,70 +2555,70 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>230.8744955960827</v>
-      </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,19 +2640,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12.90925672556489</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,58 +2710,58 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C29" t="n">
-        <v>81.0053776549329</v>
       </c>
       <c r="D29" t="n">
         <v>241.0142888776591</v>
@@ -2810,10 +2810,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,16 +2837,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>89.93914640865493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>20.21788330486058</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -2892,7 +2892,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3108,28 +3108,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>125.9839739661597</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>84.56713651463427</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3348,25 +3348,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>124.906780124857</v>
       </c>
       <c r="E36" t="n">
-        <v>3.749580224518764</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,19 +3393,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3481,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>17.04906131757392</v>
       </c>
       <c r="U39" t="n">
-        <v>183.8842973311964</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,40 +3673,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,16 +3831,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>32.5327296920134</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>71.27563719245525</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3983,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,16 +4056,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.9134115034406</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>158.3626506547285</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.68381369134799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="C2" t="n">
-        <v>26.68381369134799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>26.68381369134799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="E2" t="n">
-        <v>26.68381369134799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="F2" t="n">
-        <v>19.73831294214452</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>55.11790488024824</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000985</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000985</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>105.9439968277793</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
-        <v>105.9439968277793</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>51.89093722176946</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>51.89093722176946</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>51.89093722176946</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="X2" t="n">
-        <v>51.89093722176946</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>51.89093722176946</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.08819457959154</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4413,46 +4413,46 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N3" t="n">
         <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="S3" t="n">
         <v>159.9970564337892</v>
       </c>
-      <c r="S3" t="n">
-        <v>113.1412541856014</v>
-      </c>
       <c r="T3" t="n">
-        <v>113.1412541856014</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>113.1412541856014</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>113.1412541856014</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>113.1412541856014</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>113.1412541856014</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>113.1412541856014</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.95824356358591</v>
+        <v>156.0653213432986</v>
       </c>
       <c r="C4" t="n">
-        <v>26.77543850855644</v>
+        <v>156.0653213432986</v>
       </c>
       <c r="D4" t="n">
-        <v>26.77543850855644</v>
+        <v>156.0653213432986</v>
       </c>
       <c r="E4" t="n">
-        <v>26.77543850855644</v>
+        <v>156.0653213432986</v>
       </c>
       <c r="F4" t="n">
-        <v>26.77543850855644</v>
+        <v>156.0653213432986</v>
       </c>
       <c r="G4" t="n">
-        <v>26.77543850855644</v>
+        <v>156.0653213432986</v>
       </c>
       <c r="H4" t="n">
-        <v>26.77543850855644</v>
+        <v>156.0653213432986</v>
       </c>
       <c r="I4" t="n">
-        <v>26.77543850855644</v>
+        <v>156.0653213432986</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>106.8319505572413</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>146.0199887494634</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>189.7108394048997</v>
       </c>
       <c r="O4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>156.0653213432986</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>156.0653213432986</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>156.0653213432986</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>156.0653213432986</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>156.0653213432986</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>156.0653213432986</v>
       </c>
       <c r="X4" t="n">
-        <v>82.01130316959576</v>
+        <v>156.0653213432986</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.95824356358591</v>
+        <v>156.0653213432986</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>528.5815077689649</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>285.1327311248648</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>772.0302844130649</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.1412885554689</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4656,10 +4656,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>817.1412885554689</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>817.1412885554689</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>817.1412885554689</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>817.1412885554689</v>
+        <v>376.0670529769968</v>
       </c>
       <c r="W6" t="n">
-        <v>817.1412885554689</v>
+        <v>376.0670529769968</v>
       </c>
       <c r="X6" t="n">
-        <v>817.1412885554689</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y6" t="n">
-        <v>817.1412885554689</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="7">
@@ -4702,7 +4702,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1596022224361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4884,49 +4884,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>678.3417187247995</v>
+        <v>353.0295488971563</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5078,13 +5078,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="12">
@@ -5121,13 +5121,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
         <v>542.809531908403</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J13" t="n">
         <v>41.77557929797318</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
         <v>962.2293816994886</v>
@@ -5315,13 +5315,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>640.669716568258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>196.166878172303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>82.7977425798823</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N15" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J16" t="n">
         <v>41.77557929797318</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="17">
@@ -5510,7 +5510,7 @@
         <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.334904905842</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="C18" t="n">
-        <v>110.334904905842</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D18" t="n">
-        <v>110.334904905842</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E18" t="n">
-        <v>110.334904905842</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F18" t="n">
-        <v>110.334904905842</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,49 +5595,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>425.5489231905453</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>182.1001465464452</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>182.1001465464452</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5695,16 +5695,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C20" t="n">
-        <v>730.8505943024719</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>730.8505943024719</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E20" t="n">
-        <v>487.4018176583718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F20" t="n">
-        <v>487.4018176583718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G20" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>667.4527462414319</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C21" t="n">
-        <v>667.4527462414319</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5838,10 +5838,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>667.4527462414319</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>667.4527462414319</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>667.4527462414319</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>667.4527462414319</v>
+        <v>376.0670529769968</v>
       </c>
       <c r="X21" t="n">
-        <v>667.4527462414319</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y21" t="n">
-        <v>667.4527462414319</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>454.3181732824481</v>
+        <v>371.8843175067282</v>
       </c>
       <c r="C24" t="n">
-        <v>454.3181732824481</v>
+        <v>371.8843175067282</v>
       </c>
       <c r="D24" t="n">
-        <v>305.3837636211968</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>454.3181732824481</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>454.3181732824481</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>454.3181732824481</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y24" t="n">
-        <v>454.3181732824481</v>
+        <v>540.0996545267963</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,16 +6306,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6409,25 +6409,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>627.7355178317791</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="C30" t="n">
-        <v>453.2824885506521</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="D30" t="n">
-        <v>453.2824885506521</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="E30" t="n">
-        <v>453.2824885506521</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,16 +6549,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6576,16 +6576,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>627.7355178317791</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X30" t="n">
-        <v>627.7355178317791</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y30" t="n">
-        <v>627.7355178317791</v>
+        <v>411.587349213889</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>284.1276524520142</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>502.6601697108322</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="C33" t="n">
-        <v>328.2071404297052</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="D33" t="n">
-        <v>179.2727307684539</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X33" t="n">
-        <v>878.6358054958541</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y33" t="n">
-        <v>670.8755067309003</v>
+        <v>518.4217842253022</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6977,10 +6977,10 @@
         <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>512.7568786610034</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="C36" t="n">
-        <v>512.7568786610034</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="D36" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="Y36" t="n">
-        <v>512.7568786610034</v>
+        <v>145.4496078827955</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7205,19 +7205,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>194.4883050441255</v>
+        <v>444.0253891924244</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7254,10 +7254,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
         <v>473.4149733950735</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>672.2490074560353</v>
       </c>
       <c r="U39" t="n">
-        <v>778.3154410346802</v>
+        <v>444.0253891924244</v>
       </c>
       <c r="V39" t="n">
-        <v>778.3154410346802</v>
+        <v>444.0253891924244</v>
       </c>
       <c r="W39" t="n">
-        <v>778.3154410346802</v>
+        <v>444.0253891924244</v>
       </c>
       <c r="X39" t="n">
-        <v>570.4639408291474</v>
+        <v>444.0253891924244</v>
       </c>
       <c r="Y39" t="n">
-        <v>362.7036420641935</v>
+        <v>444.0253891924244</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7436,25 +7436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X41" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>304.9965798960495</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C42" t="n">
-        <v>304.9965798960495</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D42" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>166.265754478665</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>52.8966188862443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
         <v>781.4136778972854</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="X42" t="n">
-        <v>512.7568786610034</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y42" t="n">
-        <v>304.9965798960495</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="43">
@@ -7594,25 +7594,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7679,19 +7679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>307.1033079837604</v>
+        <v>428.1192463369997</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6502787026334</v>
+        <v>428.1192463369997</v>
       </c>
       <c r="D45" t="n">
-        <v>132.6502787026334</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E45" t="n">
-        <v>132.6502787026334</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F45" t="n">
         <v>132.6502787026334</v>
@@ -7728,16 +7728,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
         <v>781.4136778972854</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>885.3567398505952</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>885.3567398505952</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>683.1701452093612</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>683.1701452093612</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>683.1701452093612</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>683.1701452093612</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X45" t="n">
-        <v>475.3186450038284</v>
+        <v>804.0948821220215</v>
       </c>
       <c r="Y45" t="n">
-        <v>475.3186450038284</v>
+        <v>596.3345833570677</v>
       </c>
     </row>
     <row r="46">
@@ -7834,7 +7834,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
         <v>19.28114311021272</v>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>271.4402576706899</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
         <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>282.5834023809789</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8061,22 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,13 +8304,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8547,10 +8547,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,10 +9732,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,7 +9966,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>382.6009056104135</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10437,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,10 +11148,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>301.2485028631349</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,10 +11385,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,7 +23501,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F14" t="n">
         <v>165.8617568640524</v>
@@ -23555,7 +23555,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>347.4314726443769</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>27.26179070270006</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23750,10 +23750,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>104.3983415011523</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>134.6351065531071</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,28 +23969,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,16 +24011,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>152.0811711237432</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24051,22 +24051,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24096,22 +24096,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>78.20953462214715</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>128.3267508830167</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24142,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>379.4685256062839</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,7 +24221,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24254,22 +24254,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,19 +24291,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.8162157061213</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24342,16 +24342,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>26.97905868096183</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,28 +24443,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>108.6003065196844</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24497,16 +24497,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,19 +24528,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>144.7358237298361</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>284.2675141160747</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>113.6687527430239</v>
@@ -24698,10 +24698,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,16 +24725,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,10 +24768,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>55.13006598472894</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>117.1256338583501</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24780,7 +24780,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24816,13 +24816,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24898,10 +24898,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,16 +24929,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>201.2414235542941</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,25 +24965,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,28 +24996,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>19.0852384272242</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,7 +25047,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25056,13 +25056,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>121.2058486888432</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756322</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25217,10 +25217,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>173.9525530126115</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25236,25 +25236,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>22.53828543978177</v>
       </c>
       <c r="E36" t="n">
-        <v>153.8955002308822</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,19 +25281,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25369,13 +25369,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25445,7 +25445,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25476,7 +25476,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25488,7 +25488,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25515,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>183.1156673772477</v>
       </c>
       <c r="U39" t="n">
-        <v>42.05708474977843</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25533,10 +25533,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25640,7 +25640,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25676,25 +25676,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>306.5685030994106</v>
       </c>
       <c r="W41" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25719,16 +25719,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>56.86390315940168</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,22 +25755,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>154.6657448885196</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25871,16 +25871,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25919,7 +25919,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,16 +25944,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.24442264920253</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26007,10 +26007,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>47.41033454874895</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26074,10 +26074,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>382348.1816572801</v>
+        <v>382348.1816572802</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>382348.1816572801</v>
+        <v>382348.1816572802</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>382348.1816572801</v>
+        <v>382348.1816572802</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>382348.1816572801</v>
+        <v>382348.1816572802</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>382348.1816572801</v>
+        <v>382348.1816572802</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>382348.1816572802</v>
+        <v>382348.1816572801</v>
       </c>
     </row>
     <row r="16">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
         <v>224316.9079172986</v>
       </c>
       <c r="F2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="G2" t="n">
         <v>224316.9079172987</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>224316.9079172986</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>224316.9079172987</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>224316.9079172987</v>
+      </c>
+      <c r="K2" t="n">
         <v>224316.9079172986</v>
-      </c>
-      <c r="J2" t="n">
-        <v>224316.9079172988</v>
-      </c>
-      <c r="K2" t="n">
-        <v>224316.9079172987</v>
       </c>
       <c r="L2" t="n">
         <v>224316.9079172987</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350176.5876421471</v>
+        <v>347968.0377624266</v>
       </c>
       <c r="C4" t="n">
-        <v>307255.7689654693</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="D4" t="n">
-        <v>307255.7689654693</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="E4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="F4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="G4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149212.1659930382</v>
+        <v>151420.7158727584</v>
       </c>
       <c r="C6" t="n">
-        <v>138089.8347424921</v>
+        <v>141117.8078608828</v>
       </c>
       <c r="D6" t="n">
-        <v>198666.1569291602</v>
+        <v>201694.1300475511</v>
       </c>
       <c r="E6" t="n">
-        <v>181352.997822527</v>
+        <v>184380.9709409177</v>
       </c>
       <c r="F6" t="n">
-        <v>181352.9978225271</v>
+        <v>184380.9709409177</v>
       </c>
       <c r="G6" t="n">
-        <v>181352.997822527</v>
+        <v>184380.9709409178</v>
       </c>
       <c r="H6" t="n">
-        <v>181352.9978225271</v>
+        <v>184380.9709409177</v>
       </c>
       <c r="I6" t="n">
-        <v>181352.997822527</v>
+        <v>184380.9709409178</v>
       </c>
       <c r="J6" t="n">
-        <v>167351.7656822479</v>
+        <v>170379.7388006385</v>
       </c>
       <c r="K6" t="n">
-        <v>133096.0448888945</v>
+        <v>136124.0180072851</v>
       </c>
       <c r="L6" t="n">
-        <v>181352.9978225271</v>
+        <v>184380.9709409178</v>
       </c>
       <c r="M6" t="n">
-        <v>181352.9978225271</v>
+        <v>184380.9709409178</v>
       </c>
       <c r="N6" t="n">
-        <v>181352.997822527</v>
+        <v>184380.9709409177</v>
       </c>
       <c r="O6" t="n">
-        <v>181352.9978225271</v>
+        <v>184380.9709409177</v>
       </c>
       <c r="P6" t="n">
-        <v>181352.9978225271</v>
+        <v>184380.9709409177</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>357.7787893683633</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>390.1088905323286</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>96.35658893119992</v>
@@ -27433,7 +27433,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27458,7 +27458,7 @@
         <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,10 +27470,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>83.83098815326088</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>65.84820001079058</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>125.2959268781319</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>166.0758440941487</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>32.64951424174463</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>173.4009736375838</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>172.1971263790874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.072124342145</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>341.4540909391266</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>196.131336269458</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27701,22 +27701,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,22 +27743,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>126.3942969708654</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>122.6961195924249</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>311.7191632230924</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,22 +27859,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>209.8933976134044</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>221.7833099879279</v>
+        <v>225.6725384817145</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,7 +28026,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
+        <v>51.35040662570936</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="N3" t="n">
-        <v>51.35040662570936</v>
-      </c>
-      <c r="O3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34942,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35024,13 +35024,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35182,7 +35182,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35267,10 +35267,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35656,7 +35656,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,10 +36452,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36686,7 +36686,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>240.0046611659691</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,16 +37157,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>226.4350751681936</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37868,10 +37868,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9067907798016</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38029,7 +38029,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
@@ -38105,10 +38105,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1458385.94491067</v>
+        <v>1460709.616724538</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5930626.202297252</v>
+        <v>5930626.202297251</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19384698280639</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>53.51252900994975</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>19.88180868221617</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -750,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="H3" t="n">
-        <v>46.38724422570589</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>47.13383555196372</v>
+      </c>
+      <c r="X3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -838,49 +840,49 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>23.44046883036203</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="K4" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="X4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.89241773958567</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -938,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>178.157313031983</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,22 +1025,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>110.1044675570004</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>133.186967585368</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1154,7 +1156,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>118.0728405592477</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,19 +1268,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>7.128048667710792</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>151.27808017072</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1461,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>64.33804635206413</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,19 +1499,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1552,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,67 +1609,67 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -1746,10 +1748,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>162.6080338315131</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1789,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1850,67 +1852,67 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="18">
@@ -1920,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.13484214871499</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>27.44407725673862</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>241.0142888776591</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2123,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>203.3816115706753</v>
       </c>
       <c r="W21" t="n">
-        <v>123.3682322779029</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2239,52 +2241,52 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,17 +2317,17 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,28 +2362,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2412,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>178.7036370963425</v>
+        <v>16.53524424398009</v>
       </c>
     </row>
     <row r="25">
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>24.74894597221386</v>
       </c>
     </row>
     <row r="28">
@@ -2752,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,20 +2794,20 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>20.21788330486058</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>10.40493801491967</v>
       </c>
     </row>
     <row r="31">
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>120.2060159584285</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>125.9839739661597</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -3168,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3311,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>124.906780124857</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -3399,16 +3401,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="39">
@@ -3585,10 +3587,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>84.8410341333234</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,10 +3635,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>17.04906131757392</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3743,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3785,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V41" t="n">
-        <v>21.18375537072436</v>
-      </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>71.27563719245525</v>
+        <v>142.0523914963076</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3916,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4037,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4056,25 +4058,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>31.16010504236965</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>158.3626506547285</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.85238145955221</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="C2" t="n">
-        <v>95.85238145955221</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="D2" t="n">
-        <v>95.85238145955221</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="E2" t="n">
-        <v>95.85238145955221</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="F2" t="n">
-        <v>41.79932185354235</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>16.35099156787933</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4331,49 +4333,49 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>4.28100232079598</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>95.85238145955221</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T2" t="n">
-        <v>95.85238145955221</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U2" t="n">
-        <v>95.85238145955221</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V2" t="n">
-        <v>95.85238145955221</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="W2" t="n">
-        <v>95.85238145955221</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="X2" t="n">
-        <v>95.85238145955221</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="Y2" t="n">
-        <v>95.85238145955221</v>
+        <v>139.9144214012476</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G3" t="n">
-        <v>51.89093722176946</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
@@ -4413,10 +4415,10 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>110.2358097604965</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>161.0727123199487</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
         <v>161.0727123199487</v>
@@ -4434,25 +4436,25 @@
         <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>159.9970564337892</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="X3" t="n">
-        <v>159.9970564337892</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.9970564337892</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.0653213432986</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>156.0653213432986</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>156.0653213432986</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>156.0653213432986</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>156.0653213432986</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>156.0653213432986</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>156.0653213432986</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>156.0653213432986</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>102.0122617372887</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>79.51782554952828</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>106.8319505572413</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>146.0199887494634</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>189.7108394048997</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>214.050116039799</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>214.050116039799</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>159.9970564337892</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="R4" t="n">
-        <v>156.0653213432986</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="S4" t="n">
-        <v>156.0653213432986</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="T4" t="n">
-        <v>156.0653213432986</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U4" t="n">
-        <v>156.0653213432986</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>156.0653213432986</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W4" t="n">
-        <v>156.0653213432986</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X4" t="n">
-        <v>156.0653213432986</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>156.0653213432986</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F5" t="n">
+        <v>290.2572196227447</v>
+      </c>
+      <c r="G5" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="G5" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>540.6514970160482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168.215552771464</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C6" t="n">
-        <v>168.215552771464</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4656,10 +4658,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4671,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>376.0670529769968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>376.0670529769968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>168.215552771464</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>168.215552771464</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>730.8505943024719</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="C8" t="n">
-        <v>730.8505943024719</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="D8" t="n">
-        <v>730.8505943024719</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="E8" t="n">
-        <v>730.8505943024719</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="F8" t="n">
-        <v>487.4018176583718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>482.2773291604919</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4914,19 +4916,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>360.2295980564601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V9" t="n">
-        <v>353.0295488971563</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W9" t="n">
-        <v>109.5807722530562</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>109.5807722530562</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4983,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
         <v>19.28114311021272</v>
@@ -5069,22 +5071,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W11" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X11" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>84.26906871835831</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5121,22 +5123,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5145,25 +5147,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>391.2152311558108</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5305,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D15" t="n">
         <v>19.28114311021272</v>
@@ -5358,49 +5360,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>336.430889791532</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>901.2946886937524</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C18" t="n">
-        <v>726.8416594126254</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D18" t="n">
-        <v>577.9072497513741</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E18" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,13 +5600,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5619,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="19">
@@ -5695,25 +5697,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W21" t="n">
-        <v>376.0670529769968</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X21" t="n">
-        <v>168.215552771464</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5932,28 +5934,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>371.8843175067282</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>371.8843175067282</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6074,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X24" t="n">
-        <v>720.6083788665362</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="Y24" t="n">
-        <v>540.0996545267963</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6309,43 +6311,43 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>933.9571464551993</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6400,19 +6402,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C29" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="D29" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="E29" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="F29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>243.3720121938209</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C30" t="n">
-        <v>243.3720121938209</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>243.3720121938209</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>243.3720121938209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>243.3720121938209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6572,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W30" t="n">
-        <v>619.4388494194218</v>
+        <v>189.028636514577</v>
       </c>
       <c r="X30" t="n">
-        <v>411.587349213889</v>
+        <v>189.028636514577</v>
       </c>
       <c r="Y30" t="n">
-        <v>411.587349213889</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6679,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>350.2064472052342</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C33" t="n">
-        <v>350.2064472052342</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D33" t="n">
-        <v>350.2064472052342</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E33" t="n">
-        <v>350.2064472052342</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F33" t="n">
-        <v>222.9499078454769</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>518.4217842253022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X33" t="n">
-        <v>518.4217842253022</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y33" t="n">
-        <v>518.4217842253022</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>145.4496078827955</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C36" t="n">
-        <v>145.4496078827955</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7026,40 +7028,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>588.4532163200711</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>353.3011080883284</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W36" t="n">
-        <v>353.3011080883284</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X36" t="n">
-        <v>145.4496078827955</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y36" t="n">
-        <v>145.4496078827955</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="37">
@@ -7126,7 +7128,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7211,13 +7213,13 @@
         <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>444.0253891924244</v>
+        <v>279.432186667424</v>
       </c>
       <c r="C39" t="n">
-        <v>269.5723599112974</v>
+        <v>104.979157386297</v>
       </c>
       <c r="D39" t="n">
-        <v>269.5723599112974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>672.2490074560353</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>444.0253891924244</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>444.0253891924244</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W39" t="n">
-        <v>444.0253891924244</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X39" t="n">
-        <v>444.0253891924244</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y39" t="n">
-        <v>444.0253891924244</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>527.5764290961142</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U41" t="n">
-        <v>284.1276524520142</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V41" t="n">
-        <v>262.7299197543128</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W41" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X41" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>342.668582052591</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C42" t="n">
-        <v>168.215552771464</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7500,13 +7502,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>718.6442178376129</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="V42" t="n">
-        <v>718.6442178376129</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="W42" t="n">
-        <v>718.6442178376129</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="X42" t="n">
-        <v>718.6442178376129</v>
+        <v>612.718391167419</v>
       </c>
       <c r="Y42" t="n">
-        <v>510.883919072659</v>
+        <v>612.718391167419</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
         <v>19.28114311021272</v>
@@ -7685,7 +7687,7 @@
         <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
         <v>506.1786963984129</v>
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>428.1192463369997</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C45" t="n">
-        <v>428.1192463369997</v>
+        <v>520.918188268317</v>
       </c>
       <c r="D45" t="n">
-        <v>279.1848366757484</v>
+        <v>520.918188268317</v>
       </c>
       <c r="E45" t="n">
-        <v>279.1848366757484</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F45" t="n">
-        <v>132.6502787026334</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G45" t="n">
-        <v>132.6502787026334</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7737,7 +7739,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
         <v>781.4136778972854</v>
@@ -7764,13 +7766,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>804.0948821220215</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>596.3345833570677</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="46">
@@ -7834,7 +7836,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
         <v>19.28114311021272</v>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>282.5834023809789</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,13 +8063,13 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8304,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8547,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8769,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>359.8407857361378</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9021,10 +9023,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,16 +9248,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,10 +9722,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,7 +9734,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10440,10 +10442,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10674,16 +10676,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11148,16 +11150,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11385,10 +11387,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23309,22 +23311,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>139.5272757214993</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23349,10 +23351,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>47.89739788443234</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23385,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23440,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23495,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>344.0891364002832</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23543,10 +23545,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23634,10 +23636,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>43.16495137196441</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23677,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23795,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="18">
@@ -23808,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104.3983415011523</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,13 +23861,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>198.4973048242362</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23877,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>113.6687527430239</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>135.4421949581581</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>29.41897557874998</v>
       </c>
       <c r="W21" t="n">
-        <v>128.3267508830167</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>255.0550143366059</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,28 +24250,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>21.14182795086677</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24300,10 +24302,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24348,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>26.97905868096183</v>
+        <v>189.1474515333243</v>
       </c>
     </row>
     <row r="25">
@@ -24406,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>180.9337498050905</v>
       </c>
     </row>
     <row r="28">
@@ -24640,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24649,13 +24651,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,19 +24682,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,16 +24733,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,19 +24767,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>117.1256338583501</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24810,10 +24812,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>195.2777577623847</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24962,10 +24964,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>254.830481723707</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>46.32716769143885</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25005,16 +25007,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>19.0852384272242</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25056,10 +25058,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25199,16 +25201,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,10 +25219,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>22.53828543978177</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>92.97244319957487</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25287,16 +25289,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25366,10 +25368,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25451,13 +25453,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="39">
@@ -25473,10 +25475,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>62.60403143131535</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25488,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>183.1156673772477</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25533,7 +25535,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25594,10 +25596,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25631,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>274.3483346048629</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25673,22 +25675,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>306.5685030994106</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25755,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>154.6657448885196</v>
+        <v>83.88899058466725</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25770,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25804,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25925,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25944,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>141.5483939459461</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -26004,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>47.41033454874895</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26074,10 +26076,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>382348.1816572802</v>
+        <v>382348.1816572801</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>382348.1816572802</v>
+        <v>382348.1816572801</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>382348.1816572801</v>
+        <v>382348.1816572802</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>382348.1816572802</v>
+        <v>382348.1816572801</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>382348.1816572801</v>
+        <v>382348.1816572802</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>382348.1816572802</v>
+        <v>382348.1816572801</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>382348.1816572802</v>
+        <v>382348.1816572801</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>382348.1816572801</v>
+        <v>382348.18165728</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
         <v>224316.9079172986</v>
@@ -26326,25 +26328,25 @@
         <v>224316.9079172986</v>
       </c>
       <c r="G2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="H2" t="n">
         <v>224316.9079172987</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>224316.9079172986</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="K2" t="n">
         <v>224316.9079172987</v>
       </c>
-      <c r="J2" t="n">
-        <v>224316.9079172987</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>224316.9079172986</v>
       </c>
-      <c r="L2" t="n">
-        <v>224316.9079172987</v>
-      </c>
       <c r="M2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="N2" t="n">
         <v>224316.9079172986</v>
@@ -26353,7 +26355,7 @@
         <v>224316.9079172987</v>
       </c>
       <c r="P2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347968.0377624266</v>
+        <v>347968.0377624267</v>
       </c>
       <c r="C4" t="n">
         <v>304227.7958470787</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151420.7158727584</v>
+        <v>151420.7158727586</v>
       </c>
       <c r="C6" t="n">
-        <v>141117.8078608828</v>
+        <v>141117.8078608827</v>
       </c>
       <c r="D6" t="n">
-        <v>201694.1300475511</v>
+        <v>201694.1300475512</v>
       </c>
       <c r="E6" t="n">
         <v>184380.9709409177</v>
@@ -26534,25 +26536,25 @@
         <v>184380.9709409177</v>
       </c>
       <c r="G6" t="n">
-        <v>184380.9709409178</v>
+        <v>184380.9709409177</v>
       </c>
       <c r="H6" t="n">
         <v>184380.9709409177</v>
       </c>
       <c r="I6" t="n">
-        <v>184380.9709409178</v>
+        <v>184380.9709409177</v>
       </c>
       <c r="J6" t="n">
-        <v>170379.7388006385</v>
+        <v>170379.7388006384</v>
       </c>
       <c r="K6" t="n">
         <v>136124.0180072851</v>
       </c>
       <c r="L6" t="n">
-        <v>184380.9709409178</v>
+        <v>184380.9709409176</v>
       </c>
       <c r="M6" t="n">
-        <v>184380.9709409178</v>
+        <v>184380.9709409177</v>
       </c>
       <c r="N6" t="n">
         <v>184380.9709409177</v>
@@ -27391,13 +27393,13 @@
         <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>390.1088905323286</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27421,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>96.35658893119992</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>155.5075405762956</v>
@@ -27436,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>307.8704497879187</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27470,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>83.83098815326088</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>65.84820001079058</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,7 +27508,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27518,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>204.5611476089559</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27558,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.64951424174463</v>
+        <v>62.72157442133235</v>
       </c>
       <c r="R4" t="n">
-        <v>173.4009736375838</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>233.0104693266412</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>341.4540909391266</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27658,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>30.86275655426235</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27676,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,28 +27697,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>122.6961195924249</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>15.42850543284433</v>
+        <v>123.8600405104216</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>311.7191632230924</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -27874,7 +27876,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>251.6582601192213</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27950,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27986,19 +27988,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>225.6725384817145</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>100.4169029901996</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28026,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28053,7 +28055,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>51.35040662570938</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,13 +34783,13 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="N3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="M3" t="n">
-        <v>51.35040662570936</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34945,10 +34947,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35024,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35182,10 +35184,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35267,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>217.7067518141195</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35741,10 +35743,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,7 +36454,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36677,7 +36679,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37160,10 +37162,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>43.28534947792182</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37312,10 +37314,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37394,16 +37396,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37868,16 +37870,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38105,10 +38107,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1460709.616724538</v>
+        <v>1391858.320283101</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994975</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>53.51252900994975</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>3.015063725959893</v>
       </c>
       <c r="V2" t="n">
-        <v>19.88180868221617</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,56 +737,56 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>47.13383555196372</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -861,14 +861,14 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="R4" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="S4" t="n">
         <v>23.44046883036203</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>29.78216610882018</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>178.157313031983</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>69.90197782146217</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
+        <v>65.59445268283731</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>118.0728405592477</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>151.27808017072</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>7.837102735344149</v>
       </c>
     </row>
     <row r="10">
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>64.33804635206413</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>96.52468151912586</v>
       </c>
     </row>
     <row r="13">
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>162.6080338315131</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>19.7279353865638</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="18">
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>198.5237389719272</v>
       </c>
       <c r="U18" t="n">
-        <v>27.44407725673862</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,67 +2086,67 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>164.8304714084692</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2219,7 +2219,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>203.3816115706753</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2280,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2326,22 +2326,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,22 +2362,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>9.234466016111892</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2399,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>60.85611943482701</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2417,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2459,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.53524424398009</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -2614,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>12.13783202721522</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -2693,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>24.74894597221386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,67 +2800,67 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="G29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>77.23901705407371</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.40493801491967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3031,28 +3031,28 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>120.2060159584285</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
     </row>
     <row r="34">
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T35" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>138.0259534842391</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>64.67263725582607</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3502,31 +3502,31 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>218.2545356023572</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>84.8410341333234</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>109.7640042339119</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3644,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,76 +3739,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>60.18139926390465</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>142.0523914963076</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3918,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,65 +3976,65 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>31.16010504236965</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139.9144214012476</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="C2" t="n">
-        <v>139.9144214012476</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="D2" t="n">
-        <v>139.9144214012476</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="E2" t="n">
-        <v>139.9144214012476</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="F2" t="n">
-        <v>85.86136179523773</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4333,13 +4333,13 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000985</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000985</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="N2" t="n">
         <v>108.0953086000985</v>
@@ -4351,31 +4351,31 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="V2" t="n">
-        <v>139.9144214012476</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="W2" t="n">
-        <v>139.9144214012476</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="X2" t="n">
-        <v>139.9144214012476</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="Y2" t="n">
-        <v>139.9144214012476</v>
+        <v>38.75380293843134</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.33406192680583</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C3" t="n">
-        <v>58.33406192680583</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D3" t="n">
-        <v>58.33406192680583</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E3" t="n">
-        <v>58.33406192680583</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="F3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
         <v>4.28100232079598</v>
@@ -4412,16 +4412,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="M3" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="L3" t="n">
-        <v>57.25840604064623</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>108.0953086000985</v>
-      </c>
-      <c r="N3" t="n">
-        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
         <v>161.0727123199487</v>
@@ -4433,28 +4433,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>166.4401811388256</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>112.3871215328157</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>112.3871215328157</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4509,25 +4509,25 @@
         <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.3871215328157</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="R4" t="n">
-        <v>112.3871215328157</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="S4" t="n">
-        <v>112.3871215328157</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="T4" t="n">
-        <v>112.3871215328157</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="U4" t="n">
-        <v>112.3871215328157</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="V4" t="n">
-        <v>112.3871215328157</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="W4" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X4" t="n">
         <v>4.28100232079598</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>540.6514970160482</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C5" t="n">
-        <v>297.2027203719481</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D5" t="n">
-        <v>297.2027203719481</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E5" t="n">
-        <v>297.2027203719481</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>784.1002736601483</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>784.1002736601483</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U5" t="n">
-        <v>784.1002736601483</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V5" t="n">
-        <v>784.1002736601483</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W5" t="n">
-        <v>540.6514970160482</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X5" t="n">
-        <v>540.6514970160482</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y5" t="n">
-        <v>540.6514970160482</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
         <v>41.77557929797318</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>482.2773291604919</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C8" t="n">
-        <v>482.2773291604919</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D8" t="n">
-        <v>482.2773291604919</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>482.2773291604919</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>341.056931913353</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>601.5428246748836</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>482.2773291604919</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y8" t="n">
-        <v>482.2773291604919</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
         <v>20.03527576299844</v>
@@ -4889,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>956.1408901213997</v>
       </c>
     </row>
     <row r="10">
@@ -4980,25 +4980,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5068,25 +5068,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U11" t="n">
-        <v>495.259035872464</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V11" t="n">
-        <v>495.259035872464</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W11" t="n">
-        <v>495.259035872464</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>84.26906871835831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5126,46 +5126,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U12" t="n">
-        <v>634.6640077999109</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V12" t="n">
-        <v>634.6640077999109</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W12" t="n">
-        <v>391.2152311558108</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X12" t="n">
-        <v>391.2152311558108</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="Y12" t="n">
-        <v>391.2152311558108</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5220,22 +5220,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
         <v>19.28114311021272</v>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
         <v>262.7299197543128</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>527.5764290961142</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V14" t="n">
-        <v>527.5764290961142</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W14" t="n">
-        <v>284.1276524520142</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X14" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>168.215552771464</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="C15" t="n">
-        <v>168.215552771464</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="F15" t="n">
         <v>19.28114311021272</v>
@@ -5363,16 +5363,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5399,10 +5399,10 @@
         <v>500.6814290152826</v>
       </c>
       <c r="X15" t="n">
-        <v>336.430889791532</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y15" t="n">
-        <v>336.430889791532</v>
+        <v>85.06963004479587</v>
       </c>
     </row>
     <row r="16">
@@ -5460,19 +5460,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>591.4512093066566</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U17" t="n">
-        <v>591.4512093066566</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V17" t="n">
-        <v>591.4512093066566</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W17" t="n">
-        <v>591.4512093066566</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X17" t="n">
-        <v>348.0024326625565</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>352.9716273967953</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C18" t="n">
-        <v>178.5185981156682</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D18" t="n">
         <v>178.5185981156682</v>
@@ -5600,19 +5600,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>763.5281262460633</v>
       </c>
       <c r="U18" t="n">
-        <v>560.7319261617492</v>
+        <v>535.3045079824524</v>
       </c>
       <c r="V18" t="n">
-        <v>560.7319261617492</v>
+        <v>535.3045079824524</v>
       </c>
       <c r="W18" t="n">
-        <v>560.7319261617492</v>
+        <v>535.3045079824524</v>
       </c>
       <c r="X18" t="n">
-        <v>560.7319261617492</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="Y18" t="n">
-        <v>352.9716273967953</v>
+        <v>327.4530077769195</v>
       </c>
     </row>
     <row r="19">
@@ -5709,13 +5709,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
         <v>262.7299197543128</v>
@@ -5743,7 +5743,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>742.8341567219593</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>742.8341567219593</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5834,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>432.4774131586771</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>227.0414418751666</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W21" t="n">
-        <v>227.0414418751666</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="22">
@@ -5928,10 +5928,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>348.0024326625565</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C23" t="n">
-        <v>348.0024326625565</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D23" t="n">
-        <v>348.0024326625565</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E23" t="n">
-        <v>104.5536560184564</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F23" t="n">
-        <v>104.5536560184564</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>104.5536560184564</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>591.4512093066566</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>591.4512093066566</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V23" t="n">
-        <v>348.0024326625565</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W23" t="n">
-        <v>348.0024326625565</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X23" t="n">
-        <v>348.0024326625565</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y23" t="n">
-        <v>348.0024326625565</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>346.2587618989155</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>171.8057326177884</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>243.8349102288568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X24" t="n">
-        <v>35.98341002332393</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>346.2587618989155</v>
       </c>
     </row>
     <row r="25">
@@ -6168,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>728.6161971483371</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>486.248002141161</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>337.3135924799097</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>178.0761374744542</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>31.54157950133921</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6311,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>621.8469951458151</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6332,25 +6332,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V27" t="n">
-        <v>252.1315786412141</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W27" t="n">
-        <v>252.1315786412141</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X27" t="n">
-        <v>44.28007843568128</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="28">
@@ -6402,19 +6402,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E29" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>178.5185981156682</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="C30" t="n">
-        <v>178.5185981156682</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>97.30035225574173</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6545,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6569,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>432.4774131586771</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V30" t="n">
-        <v>432.4774131586771</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W30" t="n">
-        <v>189.028636514577</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X30" t="n">
-        <v>189.028636514577</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y30" t="n">
-        <v>178.5185981156682</v>
+        <v>243.8349102288568</v>
       </c>
     </row>
     <row r="31">
@@ -6645,7 +6645,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6785,13 +6785,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>279.432186667424</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y33" t="n">
-        <v>279.432186667424</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6879,16 +6879,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="U35" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U35" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>259.0600686093459</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="C36" t="n">
-        <v>84.60703932821886</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="D36" t="n">
-        <v>84.60703932821886</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X36" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y36" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="37">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7204,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>279.432186667424</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="C39" t="n">
-        <v>104.979157386297</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>359.1843292198467</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7256,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X39" t="n">
-        <v>279.432186667424</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y39" t="n">
-        <v>279.432186667424</v>
+        <v>518.4217842253022</v>
       </c>
     </row>
     <row r="40">
@@ -7359,16 +7359,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.8760884571613</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C41" t="n">
-        <v>343.8760884571613</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>343.8760884571613</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>343.8760884571613</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>343.8760884571613</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>343.8760884571613</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>612.718391167419</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="C42" t="n">
-        <v>612.718391167419</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="D42" t="n">
-        <v>463.7839815061678</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="E42" t="n">
-        <v>304.5465265007123</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="F42" t="n">
-        <v>158.0119685275972</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>726.4525409563269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>820.5698913729518</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>820.5698913729518</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>820.5698913729518</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>612.718391167419</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y42" t="n">
-        <v>612.718391167419</v>
+        <v>339.3395341116723</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>552.3930418464681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>520.918188268317</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>520.918188268317</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7730,19 +7730,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7839,16 +7839,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
         <v>19.28114311021272</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>287.1168215956966</v>
@@ -7990,7 +7990,7 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
         <v>283.6107404316365</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8537,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8549,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,10 +8774,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9011,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M15" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9248,22 +9248,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O27" t="n">
-        <v>233.6791982203443</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10208,7 +10208,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8835549304717</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,7 +10442,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>233.6791982203443</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,16 +10676,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11153,13 +11153,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>394.1189821444107</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23308,13 +23308,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>139.5272757214993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23351,10 +23351,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>47.89739788443234</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>109.1580142581785</v>
       </c>
     </row>
     <row r="13">
@@ -23460,10 +23460,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>344.0891364002832</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>79.93861032814657</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23639,10 +23639,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>43.16495137196441</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>345.5449563844438</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>301.8181508768923</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23813,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.640989722894403</v>
       </c>
       <c r="U18" t="n">
-        <v>198.4973048242362</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23876,10 +23876,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23949,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>135.4421949581581</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>1.70271224139816</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>29.41897557874998</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24168,13 +24168,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24214,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>255.0550143366059</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>242.1111868917246</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24287,10 +24287,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>86.58894612981175</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24305,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>189.1474515333243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24408,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>394.1189821444107</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,10 +24502,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>107.53913272771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24524,19 +24524,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>125.2056851359954</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24581,16 +24581,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>180.9337498050905</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24642,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24654,10 +24654,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>204.5813593128142</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24767,13 +24767,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>60.10450010913692</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24809,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>195.2777577623847</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24885,10 +24885,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24919,28 +24919,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24979,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>254.830481723707</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>46.32716769143885</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25010,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>170.2754303037659</v>
       </c>
     </row>
     <row r="34">
@@ -25119,19 +25119,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T35" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>34.68254550407667</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>92.97244319957487</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25408,13 +25408,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25453,13 +25453,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>130.9864331150558</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,25 +25472,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>62.60403143131535</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>35.30520815947199</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25532,10 +25532,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,31 +25627,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>274.3483346048629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,31 +25672,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25706,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>52.05404497259181</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,19 +25757,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>83.88899058466725</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25806,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25912,16 +25912,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>141.5483939459461</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>382348.1816572801</v>
+        <v>382348.1816572802</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>382348.1816572801</v>
+        <v>382348.1816572802</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>382348.1816572802</v>
+        <v>382348.1816572801</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>382348.1816572801</v>
+        <v>382348.1816572802</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>382348.1816572802</v>
+        <v>382348.1816572801</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>382348.1816572801</v>
+        <v>382348.1816572802</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>382348.18165728</v>
+        <v>382348.1816572802</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>382348.1816572801</v>
+        <v>382348.18165728</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
         <v>224316.9079172986</v>
@@ -26331,10 +26331,10 @@
         <v>224316.9079172986</v>
       </c>
       <c r="H2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="I2" t="n">
         <v>224316.9079172987</v>
-      </c>
-      <c r="I2" t="n">
-        <v>224316.9079172986</v>
       </c>
       <c r="J2" t="n">
         <v>224316.9079172986</v>
@@ -26346,16 +26346,16 @@
         <v>224316.9079172986</v>
       </c>
       <c r="M2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="N2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="O2" t="n">
         <v>224316.9079172987</v>
       </c>
       <c r="P2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347968.0377624267</v>
+        <v>347968.0377624266</v>
       </c>
       <c r="C4" t="n">
         <v>304227.7958470787</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151420.7158727586</v>
+        <v>151420.7158727585</v>
       </c>
       <c r="C6" t="n">
-        <v>141117.8078608827</v>
+        <v>141117.807860883</v>
       </c>
       <c r="D6" t="n">
-        <v>201694.1300475512</v>
+        <v>201694.1300475509</v>
       </c>
       <c r="E6" t="n">
-        <v>184380.9709409177</v>
+        <v>172162.9603208772</v>
       </c>
       <c r="F6" t="n">
-        <v>184380.9709409177</v>
+        <v>172162.9603208772</v>
       </c>
       <c r="G6" t="n">
-        <v>184380.9709409177</v>
+        <v>172162.9603208772</v>
       </c>
       <c r="H6" t="n">
-        <v>184380.9709409177</v>
+        <v>172162.9603208772</v>
       </c>
       <c r="I6" t="n">
-        <v>184380.9709409177</v>
+        <v>172162.9603208773</v>
       </c>
       <c r="J6" t="n">
-        <v>170379.7388006384</v>
+        <v>158161.7281805979</v>
       </c>
       <c r="K6" t="n">
-        <v>136124.0180072851</v>
+        <v>123906.0073872447</v>
       </c>
       <c r="L6" t="n">
-        <v>184380.9709409176</v>
+        <v>172162.9603208772</v>
       </c>
       <c r="M6" t="n">
-        <v>184380.9709409177</v>
+        <v>172162.9603208773</v>
       </c>
       <c r="N6" t="n">
-        <v>184380.9709409177</v>
+        <v>172162.9603208773</v>
       </c>
       <c r="O6" t="n">
-        <v>184380.9709409177</v>
+        <v>172162.9603208773</v>
       </c>
       <c r="P6" t="n">
-        <v>184380.9709409177</v>
+        <v>172162.9603208773</v>
       </c>
     </row>
   </sheetData>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>155.5075405762956</v>
@@ -27435,10 +27435,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>248.3305891818766</v>
       </c>
       <c r="V2" t="n">
-        <v>307.8704497879187</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>93.93253655468899</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>97.93537684142012</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>204.5611476089559</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>152.2604561935277</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>62.72157442133235</v>
+        <v>32.64951424174463</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>123.7808623672197</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>200.5761292066102</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>233.0104693266412</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>172.1971263790874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>377.0938796328912</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,16 +27660,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>30.86275655426235</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,25 +27697,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>181.7930053394574</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>123.8600405104216</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27815,16 +27815,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27867,16 +27867,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>251.6582601192213</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27982,10 +27982,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>100.4169029901996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>197.8455930419602</v>
       </c>
     </row>
     <row r="10">
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28064,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>51.35040662570935</v>
@@ -34710,7 +34710,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
         <v>53.51252900994975</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>51.35040662570935</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34944,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35257,10 +35257,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35269,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35494,10 +35494,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M15" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O27" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36928,7 +36928,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>169.9091475161414</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37153,7 +37153,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,7 +37162,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37317,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37396,16 +37396,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37873,13 +37873,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
